--- a/veri.xlsx
+++ b/veri.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,6 +452,9 @@
         <v>Yetkili Kişinin Rolü</v>
       </c>
       <c r="Q1" t="str">
+        <v>İsim</v>
+      </c>
+      <c r="R1" t="str">
         <v>Telefon Numarası</v>
       </c>
     </row>
@@ -505,6 +508,9 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q2" t="str">
+        <v>OTOKOÇ 2. EL MARDİN</v>
+      </c>
+      <c r="R2" t="str">
         <v>tel:(0538)-490-78-21</v>
       </c>
     </row>
@@ -558,6 +564,9 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q3" t="str">
+        <v>AHMET Sürücü</v>
+      </c>
+      <c r="R3" t="str">
         <v>tel:03322554233</v>
       </c>
     </row>
@@ -611,6 +620,9 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q4" t="str">
+        <v>AHMET Sürücü</v>
+      </c>
+      <c r="R4" t="str">
         <v>tel:03322554233</v>
       </c>
     </row>
@@ -664,6 +676,9 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q5" t="str">
+        <v>AHMET Sürücü</v>
+      </c>
+      <c r="R5" t="str">
         <v>tel:03322554233</v>
       </c>
     </row>
@@ -717,6 +732,9 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q6" t="str">
+        <v>AHMET Sürücü</v>
+      </c>
+      <c r="R6" t="str">
         <v>tel:03322554233</v>
       </c>
     </row>
@@ -770,6 +788,9 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q7" t="str">
+        <v>AHMET Sürücü</v>
+      </c>
+      <c r="R7" t="str">
         <v>tel:03322554233</v>
       </c>
     </row>
@@ -823,6 +844,9 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q8" t="str">
+        <v>AHMET Sürücü</v>
+      </c>
+      <c r="R8" t="str">
         <v>tel:03322554233</v>
       </c>
     </row>
@@ -876,12 +900,15 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q9" t="str">
+        <v>AHMET Sürücü</v>
+      </c>
+      <c r="R9" t="str">
         <v>tel:03322554233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-urban-plus-21000156985</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000158292</v>
       </c>
       <c r="B10" t="str">
         <v>FIAT</v>
@@ -890,16 +917,16 @@
         <v>EGEA</v>
       </c>
       <c r="D10" t="str">
-        <v>1.3 MJET 95 HP EU6 URBAN PLUS</v>
+        <v>1.3 MJET 95 HP EU5 EASY</v>
       </c>
       <c r="E10" t="str">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F10" t="str">
-        <v>9.219</v>
+        <v>126.223</v>
       </c>
       <c r="G10" t="str">
-        <v>34CMA737</v>
+        <v>01AOA915</v>
       </c>
       <c r="H10" t="str">
         <v>Dizel</v>
@@ -908,7 +935,7 @@
         <v>Manuel</v>
       </c>
       <c r="J10" t="str">
-        <v>1,2</v>
+        <v>1,3</v>
       </c>
       <c r="K10" t="str">
         <v>Beyaz</v>
@@ -917,24 +944,27 @@
         <v>Önden</v>
       </c>
       <c r="M10" t="str">
-        <v>OTOMOBİL/AA SEDAN</v>
+        <v/>
       </c>
       <c r="N10" t="str">
-        <v>356</v>
+        <v/>
       </c>
       <c r="O10" t="str">
-        <v>3400163</v>
+        <v>100025</v>
       </c>
       <c r="P10" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q10" t="str">
-        <v>tel:02128662400</v>
+        <v>AYSEN Özgür</v>
+      </c>
+      <c r="R10" t="str">
+        <v>tel:03224411717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-120-hp-urban-11000157343</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-urban-plus-21000156985</v>
       </c>
       <c r="B11" t="str">
         <v>FIAT</v>
@@ -943,16 +973,16 @@
         <v>EGEA</v>
       </c>
       <c r="D11" t="str">
-        <v>1.6 MJET 120 HP URBAN</v>
+        <v>1.3 MJET 95 HP EU6 URBAN PLUS</v>
       </c>
       <c r="E11" t="str">
         <v>2019</v>
       </c>
       <c r="F11" t="str">
-        <v>66.234</v>
+        <v>9.219</v>
       </c>
       <c r="G11" t="str">
-        <v>42AEE853</v>
+        <v>34CMA737</v>
       </c>
       <c r="H11" t="str">
         <v>Dizel</v>
@@ -961,7 +991,7 @@
         <v>Manuel</v>
       </c>
       <c r="J11" t="str">
-        <v>1,6</v>
+        <v>1,2</v>
       </c>
       <c r="K11" t="str">
         <v>Beyaz</v>
@@ -970,24 +1000,27 @@
         <v>Önden</v>
       </c>
       <c r="M11" t="str">
-        <v>OTOMOBİL(AA SEDAN)</v>
+        <v>OTOMOBİL/AA SEDAN</v>
       </c>
       <c r="N11" t="str">
         <v>356</v>
       </c>
       <c r="O11" t="str">
-        <v>4200148</v>
+        <v>3400163</v>
       </c>
       <c r="P11" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q11" t="str">
-        <v>tel:03322554233</v>
+        <v>Mete Can Erim</v>
+      </c>
+      <c r="R11" t="str">
+        <v>tel:02128662400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-3350514</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-120-hp-urban-11000157343</v>
       </c>
       <c r="B12" t="str">
         <v>FIAT</v>
@@ -996,16 +1029,16 @@
         <v>EGEA</v>
       </c>
       <c r="D12" t="str">
-        <v>1.3 MJET 95 HP EU6D EASY</v>
+        <v>1.6 MJET 120 HP URBAN</v>
       </c>
       <c r="E12" t="str">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F12" t="str">
-        <v>9.678</v>
+        <v>66.234</v>
       </c>
       <c r="G12" t="str">
-        <v>34FPB629</v>
+        <v>42AEE853</v>
       </c>
       <c r="H12" t="str">
         <v>Dizel</v>
@@ -1014,7 +1047,7 @@
         <v>Manuel</v>
       </c>
       <c r="J12" t="str">
-        <v>1,2</v>
+        <v>1,6</v>
       </c>
       <c r="K12" t="str">
         <v>Beyaz</v>
@@ -1023,24 +1056,27 @@
         <v>Önden</v>
       </c>
       <c r="M12" t="str">
-        <v>OTOMOBİL(AA ÇOK AMAÇLI)</v>
+        <v>OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N12" t="str">
         <v>356</v>
       </c>
       <c r="O12" t="str">
-        <v>3400031</v>
+        <v>4200148</v>
       </c>
       <c r="P12" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q12" t="str">
-        <v>tel:(0554)-537-26-00</v>
+        <v>AHMET Sürücü</v>
+      </c>
+      <c r="R12" t="str">
+        <v>tel:03322554233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6f-sedan-3349925</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-3350514</v>
       </c>
       <c r="B13" t="str">
         <v>FIAT</v>
@@ -1049,16 +1085,16 @@
         <v>EGEA</v>
       </c>
       <c r="D13" t="str">
-        <v>1.3 MJET 95 HP EASY E6F SEDAN</v>
+        <v>1.3 MJET 95 HP EU6D EASY</v>
       </c>
       <c r="E13" t="str">
         <v>2022</v>
       </c>
       <c r="F13" t="str">
-        <v>17.695</v>
+        <v>9.678</v>
       </c>
       <c r="G13" t="str">
-        <v>34FIZ109</v>
+        <v>34FPB629</v>
       </c>
       <c r="H13" t="str">
         <v>Dizel</v>
@@ -1076,7 +1112,7 @@
         <v>Önden</v>
       </c>
       <c r="M13" t="str">
-        <v>OTOMOBİL(AA SEDAN)</v>
+        <v>OTOMOBİL(AA ÇOK AMAÇLI)</v>
       </c>
       <c r="N13" t="str">
         <v>356</v>
@@ -1088,12 +1124,15 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q13" t="str">
+        <v>OTOKOÇ 2. EL KAYSERİ</v>
+      </c>
+      <c r="R13" t="str">
         <v>tel:(0554)-537-26-00</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-11000157478</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-11000157474</v>
       </c>
       <c r="B14" t="str">
         <v>FIAT</v>
@@ -1108,10 +1147,10 @@
         <v>2022</v>
       </c>
       <c r="F14" t="str">
-        <v>51.251</v>
+        <v>26.574</v>
       </c>
       <c r="G14" t="str">
-        <v>34FCT695</v>
+        <v>06DAC750</v>
       </c>
       <c r="H14" t="str">
         <v>Dizel</v>
@@ -1129,24 +1168,27 @@
         <v>Önden</v>
       </c>
       <c r="M14" t="str">
-        <v>OTOMOBİL(AA SEDAN)</v>
+        <v>OTOMOBİL (AA SEDAN)</v>
       </c>
       <c r="N14" t="str">
         <v>356</v>
       </c>
       <c r="O14" t="str">
-        <v>3400246</v>
+        <v>5500075</v>
       </c>
       <c r="P14" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q14" t="str">
-        <v>tel:02164301200</v>
+        <v>MEHMET DEMIREL</v>
+      </c>
+      <c r="R14" t="str">
+        <v>tel:03622666112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-3349560</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6f-sedan-3349925</v>
       </c>
       <c r="B15" t="str">
         <v>FIAT</v>
@@ -1155,16 +1197,16 @@
         <v>EGEA</v>
       </c>
       <c r="D15" t="str">
-        <v>1.3 MJET 95 HP EU6D EASY</v>
+        <v>1.3 MJET 95 HP EASY E6F SEDAN</v>
       </c>
       <c r="E15" t="str">
         <v>2022</v>
       </c>
       <c r="F15" t="str">
-        <v>20.720</v>
+        <v>17.695</v>
       </c>
       <c r="G15" t="str">
-        <v>34FIY926</v>
+        <v>34FIZ109</v>
       </c>
       <c r="H15" t="str">
         <v>Dizel</v>
@@ -1194,12 +1236,15 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q15" t="str">
+        <v>OTOKOÇ 2. EL KAYSERİ</v>
+      </c>
+      <c r="R15" t="str">
         <v>tel:(0554)-537-26-00</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-3348807</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-11000157478</v>
       </c>
       <c r="B16" t="str">
         <v>FIAT</v>
@@ -1208,16 +1253,16 @@
         <v>EGEA</v>
       </c>
       <c r="D16" t="str">
-        <v>1.3 MJET 95 HP EU6 EASY</v>
+        <v>1.3 MJET 95 HP EU5 EASY</v>
       </c>
       <c r="E16" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F16" t="str">
-        <v>57.724</v>
+        <v>51.251</v>
       </c>
       <c r="G16" t="str">
-        <v>34DKD169</v>
+        <v>34FCT695</v>
       </c>
       <c r="H16" t="str">
         <v>Dizel</v>
@@ -1235,24 +1280,27 @@
         <v>Önden</v>
       </c>
       <c r="M16" t="str">
-        <v>OTOMOBİL</v>
+        <v>OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N16" t="str">
         <v>356</v>
       </c>
       <c r="O16" t="str">
-        <v>4700119</v>
+        <v>3400246</v>
       </c>
       <c r="P16" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q16" t="str">
-        <v>tel:(0538)-490-78-21</v>
+        <v>AHMET Sagat</v>
+      </c>
+      <c r="R16" t="str">
+        <v>tel:02164301200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-130-hp-e6f-easy-dizel-sedan-21000157546</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-3349560</v>
       </c>
       <c r="B17" t="str">
         <v>FIAT</v>
@@ -1261,16 +1309,16 @@
         <v>EGEA</v>
       </c>
       <c r="D17" t="str">
-        <v>1.6 MJET 130 HP E6F EASY Dizel Sedan</v>
+        <v>1.3 MJET 95 HP EU6D EASY</v>
       </c>
       <c r="E17" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F17" t="str">
-        <v>47.395</v>
+        <v>20.720</v>
       </c>
       <c r="G17" t="str">
-        <v>34EGL193</v>
+        <v>34FIY926</v>
       </c>
       <c r="H17" t="str">
         <v>Dizel</v>
@@ -1279,7 +1327,7 @@
         <v>Manuel</v>
       </c>
       <c r="J17" t="str">
-        <v>1,6</v>
+        <v>1,2</v>
       </c>
       <c r="K17" t="str">
         <v>Beyaz</v>
@@ -1288,24 +1336,27 @@
         <v>Önden</v>
       </c>
       <c r="M17" t="str">
-        <v/>
+        <v>OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N17" t="str">
-        <v/>
+        <v>356</v>
       </c>
       <c r="O17" t="str">
-        <v>600340</v>
+        <v>3400031</v>
       </c>
       <c r="P17" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q17" t="str">
-        <v>tel:03125918600</v>
+        <v>OTOKOÇ 2. EL KAYSERİ</v>
+      </c>
+      <c r="R17" t="str">
+        <v>tel:(0554)-537-26-00</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-dizel-eu6-sedan-icten-yanmali-11000156934</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-3348807</v>
       </c>
       <c r="B18" t="str">
         <v>FIAT</v>
@@ -1314,16 +1365,16 @@
         <v>EGEA</v>
       </c>
       <c r="D18" t="str">
-        <v>1.3 MJET 95 HP EU6 EASY Dizel EU6 Sedan İÇTEN YANMALI</v>
+        <v>1.3 MJET 95 HP EU6 EASY</v>
       </c>
       <c r="E18" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F18" t="str">
-        <v>42.405</v>
+        <v>57.724</v>
       </c>
       <c r="G18" t="str">
-        <v>34EFM159</v>
+        <v>34DKD169</v>
       </c>
       <c r="H18" t="str">
         <v>Dizel</v>
@@ -1332,7 +1383,7 @@
         <v>Manuel</v>
       </c>
       <c r="J18" t="str">
-        <v>1,2</v>
+        <v>1,3</v>
       </c>
       <c r="K18" t="str">
         <v>Beyaz</v>
@@ -1341,24 +1392,27 @@
         <v>Önden</v>
       </c>
       <c r="M18" t="str">
-        <v>OTOMOBİL(AA SEDAN)</v>
+        <v>OTOMOBİL</v>
       </c>
       <c r="N18" t="str">
         <v>356</v>
       </c>
       <c r="O18" t="str">
-        <v>4200148</v>
+        <v>4700119</v>
       </c>
       <c r="P18" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q18" t="str">
-        <v>tel:03322554233</v>
+        <v>OTOKOÇ 2. EL MARDİN</v>
+      </c>
+      <c r="R18" t="str">
+        <v>tel:(0538)-490-78-21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-ii-ds-95-hp-easy-3352679</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-130-hp-e6f-easy-dizel-sedan-21000157546</v>
       </c>
       <c r="B19" t="str">
         <v>FIAT</v>
@@ -1367,16 +1421,16 @@
         <v>EGEA</v>
       </c>
       <c r="D19" t="str">
-        <v>1.3 MJET II DS 95 HP EASY</v>
+        <v>1.6 MJET 130 HP E6F EASY Dizel Sedan</v>
       </c>
       <c r="E19" t="str">
         <v>2021</v>
       </c>
       <c r="F19" t="str">
-        <v>16.440</v>
+        <v>47.395</v>
       </c>
       <c r="G19" t="str">
-        <v>34DUB746</v>
+        <v>34EGL193</v>
       </c>
       <c r="H19" t="str">
         <v>Dizel</v>
@@ -1385,7 +1439,7 @@
         <v>Manuel</v>
       </c>
       <c r="J19" t="str">
-        <v>1,2</v>
+        <v>1,6</v>
       </c>
       <c r="K19" t="str">
         <v>Beyaz</v>
@@ -1400,18 +1454,21 @@
         <v>356</v>
       </c>
       <c r="O19" t="str">
-        <v>2000129</v>
+        <v>600340</v>
       </c>
       <c r="P19" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q19" t="str">
-        <v>tel:(0555)-691-81-81</v>
+        <v>ALI GÖRKEM Gülhan</v>
+      </c>
+      <c r="R19" t="str">
+        <v>tel:03125918600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-21000157531</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-ii-ds-95-hp-easy-3352679</v>
       </c>
       <c r="B20" t="str">
         <v>FIAT</v>
@@ -1420,16 +1477,16 @@
         <v>EGEA</v>
       </c>
       <c r="D20" t="str">
-        <v>1.3 MJET 95 HP EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
+        <v>1.3 MJET II DS 95 HP EASY</v>
       </c>
       <c r="E20" t="str">
         <v>2021</v>
       </c>
       <c r="F20" t="str">
-        <v>48.691</v>
+        <v>16.440</v>
       </c>
       <c r="G20" t="str">
-        <v>34EDB603</v>
+        <v>34DUB746</v>
       </c>
       <c r="H20" t="str">
         <v>Dizel</v>
@@ -1447,24 +1504,27 @@
         <v>Önden</v>
       </c>
       <c r="M20" t="str">
-        <v/>
+        <v>(OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N20" t="str">
-        <v/>
+        <v>356</v>
       </c>
       <c r="O20" t="str">
-        <v>100025</v>
+        <v>2000129</v>
       </c>
       <c r="P20" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q20" t="str">
-        <v>tel:03224411111</v>
+        <v>OTOKOÇ 2. EL DENİZLİ</v>
+      </c>
+      <c r="R20" t="str">
+        <v>tel:(0555)-691-81-81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-11000157158</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-21000157531</v>
       </c>
       <c r="B21" t="str">
         <v>FIAT</v>
@@ -1473,16 +1533,16 @@
         <v>EGEA</v>
       </c>
       <c r="D21" t="str">
-        <v>1.3 MJET 95 HP EU6D EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
+        <v>1.3 MJET 95 HP EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
       </c>
       <c r="E21" t="str">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F21" t="str">
-        <v>37.956</v>
+        <v>48.691</v>
       </c>
       <c r="G21" t="str">
-        <v>34DNM963</v>
+        <v>34EDB603</v>
       </c>
       <c r="H21" t="str">
         <v>Dizel</v>
@@ -1500,24 +1560,27 @@
         <v>Önden</v>
       </c>
       <c r="M21" t="str">
-        <v>(OTOMOBİL(AA SEDAN)</v>
+        <v/>
       </c>
       <c r="N21" t="str">
-        <v>356</v>
+        <v/>
       </c>
       <c r="O21" t="str">
-        <v>600236</v>
+        <v>100025</v>
       </c>
       <c r="P21" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q21" t="str">
-        <v>tel:03122074700</v>
+        <v>YALÇIN Güneyan</v>
+      </c>
+      <c r="R21" t="str">
+        <v>tel:03224411111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000157956</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-130-hp-e6f-easy-dizel-sedan-21000157936</v>
       </c>
       <c r="B22" t="str">
         <v>FIAT</v>
@@ -1526,16 +1589,16 @@
         <v>EGEA</v>
       </c>
       <c r="D22" t="str">
-        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
+        <v>1.6 MJET 130 HP E6F EASY Dizel Sedan</v>
       </c>
       <c r="E22" t="str">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F22" t="str">
-        <v>99.741</v>
+        <v>41.000</v>
       </c>
       <c r="G22" t="str">
-        <v>26ADD776</v>
+        <v>34EGK178</v>
       </c>
       <c r="H22" t="str">
         <v>Dizel</v>
@@ -1544,7 +1607,7 @@
         <v>Manuel</v>
       </c>
       <c r="J22" t="str">
-        <v>1,2</v>
+        <v>1,6</v>
       </c>
       <c r="K22" t="str">
         <v>Beyaz</v>
@@ -1553,24 +1616,27 @@
         <v>Önden</v>
       </c>
       <c r="M22" t="str">
-        <v/>
+        <v>(OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N22" t="str">
-        <v/>
+        <v>356</v>
       </c>
       <c r="O22" t="str">
-        <v>2600091</v>
+        <v>3400163</v>
       </c>
       <c r="P22" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q22" t="str">
-        <v>tel:02223352430</v>
+        <v>ORKUN Ustaoglu</v>
+      </c>
+      <c r="R22" t="str">
+        <v>tel:02128662400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-130-hp-e6f-easy-dizel-sedan-21000158322</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-11000157158</v>
       </c>
       <c r="B23" t="str">
         <v>FIAT</v>
@@ -1579,16 +1645,16 @@
         <v>EGEA</v>
       </c>
       <c r="D23" t="str">
-        <v>1.6 MJET 130 HP E6F EASY Dizel Sedan</v>
+        <v>1.3 MJET 95 HP EU6D EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
       </c>
       <c r="E23" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F23" t="str">
-        <v>47.554</v>
+        <v>37.956</v>
       </c>
       <c r="G23" t="str">
-        <v>34EBD348</v>
+        <v>34DNM963</v>
       </c>
       <c r="H23" t="str">
         <v>Dizel</v>
@@ -1597,7 +1663,7 @@
         <v>Manuel</v>
       </c>
       <c r="J23" t="str">
-        <v>1,6</v>
+        <v>1,2</v>
       </c>
       <c r="K23" t="str">
         <v>Beyaz</v>
@@ -1612,18 +1678,21 @@
         <v>356</v>
       </c>
       <c r="O23" t="str">
-        <v>3400163</v>
+        <v>600236</v>
       </c>
       <c r="P23" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q23" t="str">
-        <v>tel:02128662400</v>
+        <v>ARDA Karadavut</v>
+      </c>
+      <c r="R23" t="str">
+        <v>tel:03122074700</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-3293738</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000157956</v>
       </c>
       <c r="B24" t="str">
         <v>FIAT</v>
@@ -1632,16 +1701,16 @@
         <v>EGEA</v>
       </c>
       <c r="D24" t="str">
-        <v>1.3 MJET 95 HP EU6D EASY</v>
+        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
       </c>
       <c r="E24" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F24" t="str">
-        <v>18.916</v>
+        <v>99.741</v>
       </c>
       <c r="G24" t="str">
-        <v>34EVL791</v>
+        <v>26ADD776</v>
       </c>
       <c r="H24" t="str">
         <v>Dizel</v>
@@ -1659,24 +1728,27 @@
         <v>Önden</v>
       </c>
       <c r="M24" t="str">
-        <v>(OTOMOBİL(AA SEDAN)</v>
+        <v/>
       </c>
       <c r="N24" t="str">
-        <v>356</v>
+        <v/>
       </c>
       <c r="O24" t="str">
-        <v>2000129</v>
+        <v>2600091</v>
       </c>
       <c r="P24" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q24" t="str">
-        <v>tel:(0555)-691-81-81</v>
+        <v>DILARA Kirbas</v>
+      </c>
+      <c r="R24" t="str">
+        <v>tel:02223352430</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-120-hp-lounge-plus-21000157650</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-130-hp-e6f-easy-dizel-sedan-21000158322</v>
       </c>
       <c r="B25" t="str">
         <v>FIAT</v>
@@ -1685,16 +1757,16 @@
         <v>EGEA</v>
       </c>
       <c r="D25" t="str">
-        <v>1.6 MJET 120 HP LOUNGE PLUS</v>
+        <v>1.6 MJET 130 HP E6F EASY Dizel Sedan</v>
       </c>
       <c r="E25" t="str">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F25" t="str">
-        <v>146.929</v>
+        <v>47.554</v>
       </c>
       <c r="G25" t="str">
-        <v>34BGA885</v>
+        <v>34EBD348</v>
       </c>
       <c r="H25" t="str">
         <v>Dizel</v>
@@ -1706,7 +1778,7 @@
         <v>1,6</v>
       </c>
       <c r="K25" t="str">
-        <v>Gri</v>
+        <v>Beyaz</v>
       </c>
       <c r="L25" t="str">
         <v>Önden</v>
@@ -1718,18 +1790,21 @@
         <v>356</v>
       </c>
       <c r="O25" t="str">
-        <v>700048</v>
+        <v>3400163</v>
       </c>
       <c r="P25" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q25" t="str">
-        <v>tel:02423402200</v>
+        <v>ORKUN Ustaoglu</v>
+      </c>
+      <c r="R25" t="str">
+        <v>tel:02128662400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-11000157193</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000158119</v>
       </c>
       <c r="B26" t="str">
         <v>FIAT</v>
@@ -1738,16 +1813,16 @@
         <v>EGEA</v>
       </c>
       <c r="D26" t="str">
-        <v>1.3 MJET 95 HP EU6D EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
+        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
       </c>
       <c r="E26" t="str">
         <v>2020</v>
       </c>
       <c r="F26" t="str">
-        <v>59.391</v>
+        <v>46.824</v>
       </c>
       <c r="G26" t="str">
-        <v>34CTN159</v>
+        <v>34DNM891</v>
       </c>
       <c r="H26" t="str">
         <v>Dizel</v>
@@ -1765,24 +1840,27 @@
         <v>Önden</v>
       </c>
       <c r="M26" t="str">
-        <v>(OTOMOBİL(AA SEDAN)</v>
+        <v/>
       </c>
       <c r="N26" t="str">
-        <v>356</v>
+        <v/>
       </c>
       <c r="O26" t="str">
-        <v>5500075</v>
+        <v>600340</v>
       </c>
       <c r="P26" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q26" t="str">
-        <v>tel:03622666112</v>
+        <v>MEHMET CAN Irki</v>
+      </c>
+      <c r="R26" t="str">
+        <v>tel:03125918600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000158051</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-3293738</v>
       </c>
       <c r="B27" t="str">
         <v>FIAT</v>
@@ -1791,16 +1869,16 @@
         <v>EGEA</v>
       </c>
       <c r="D27" t="str">
-        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
+        <v>1.3 MJET 95 HP EU6D EASY</v>
       </c>
       <c r="E27" t="str">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F27" t="str">
-        <v>42.978</v>
+        <v>18.916</v>
       </c>
       <c r="G27" t="str">
-        <v>34DNM910</v>
+        <v>34EVL791</v>
       </c>
       <c r="H27" t="str">
         <v>Dizel</v>
@@ -1818,24 +1896,27 @@
         <v>Önden</v>
       </c>
       <c r="M27" t="str">
-        <v/>
+        <v>(OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N27" t="str">
-        <v/>
+        <v>356</v>
       </c>
       <c r="O27" t="str">
-        <v>100025</v>
+        <v>2000129</v>
       </c>
       <c r="P27" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q27" t="str">
-        <v>tel:03224411717</v>
+        <v>OTOKOÇ 2. EL DENİZLİ</v>
+      </c>
+      <c r="R27" t="str">
+        <v>tel:(0555)-691-81-81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000157664</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-dizel-eu6-sedan-icten-yanmali-11000157636</v>
       </c>
       <c r="B28" t="str">
         <v>FIAT</v>
@@ -1844,16 +1925,16 @@
         <v>EGEA</v>
       </c>
       <c r="D28" t="str">
-        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
+        <v>1.3 MJET 95 HP EU6 EASY Dizel EU6 Sedan İÇTEN YANMALI</v>
       </c>
       <c r="E28" t="str">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F28" t="str">
-        <v>68.555</v>
+        <v>71.979</v>
       </c>
       <c r="G28" t="str">
-        <v>34CYF817</v>
+        <v>34ESY789</v>
       </c>
       <c r="H28" t="str">
         <v>Dizel</v>
@@ -1871,24 +1952,27 @@
         <v>Önden</v>
       </c>
       <c r="M28" t="str">
-        <v/>
+        <v>(OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N28" t="str">
-        <v/>
+        <v>356</v>
       </c>
       <c r="O28" t="str">
-        <v>100025</v>
+        <v>1600270</v>
       </c>
       <c r="P28" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q28" t="str">
-        <v>tel:03224411111</v>
+        <v>MEHMET ALI Dilekmen</v>
+      </c>
+      <c r="R28" t="str">
+        <v>tel:02242703900</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000158112</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-120-hp-lounge-plus-21000157650</v>
       </c>
       <c r="B29" t="str">
         <v>FIAT</v>
@@ -1897,16 +1981,16 @@
         <v>EGEA</v>
       </c>
       <c r="D29" t="str">
-        <v>1.3 MJET 95 HP EU5 EASY</v>
+        <v>1.6 MJET 120 HP LOUNGE PLUS</v>
       </c>
       <c r="E29" t="str">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F29" t="str">
-        <v>88.830</v>
+        <v>146.929</v>
       </c>
       <c r="G29" t="str">
-        <v>34BRA892</v>
+        <v>34BGA885</v>
       </c>
       <c r="H29" t="str">
         <v>Dizel</v>
@@ -1915,10 +1999,10 @@
         <v>Manuel</v>
       </c>
       <c r="J29" t="str">
-        <v>1,3</v>
+        <v>1,6</v>
       </c>
       <c r="K29" t="str">
-        <v>Beyaz</v>
+        <v>Gri</v>
       </c>
       <c r="L29" t="str">
         <v>Önden</v>
@@ -1936,12 +2020,15 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q29" t="str">
+        <v>ALI Kaya</v>
+      </c>
+      <c r="R29" t="str">
         <v>tel:02423402200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-21000157435</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-urban-21000156909</v>
       </c>
       <c r="B30" t="str">
         <v>FIAT</v>
@@ -1950,16 +2037,16 @@
         <v>EGEA</v>
       </c>
       <c r="D30" t="str">
-        <v>1.3 MJET 95 HP EU6D EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
+        <v>1.3 MJET 95 HP EU5 URBAN</v>
       </c>
       <c r="E30" t="str">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F30" t="str">
-        <v>94.016</v>
+        <v>81.206</v>
       </c>
       <c r="G30" t="str">
-        <v>34CMS467</v>
+        <v>34BGB388</v>
       </c>
       <c r="H30" t="str">
         <v>Dizel</v>
@@ -1968,7 +2055,7 @@
         <v>Manuel</v>
       </c>
       <c r="J30" t="str">
-        <v>1,2</v>
+        <v>1,3</v>
       </c>
       <c r="K30" t="str">
         <v>Beyaz</v>
@@ -1977,24 +2064,27 @@
         <v>Önden</v>
       </c>
       <c r="M30" t="str">
-        <v/>
+        <v>OTOMOBİL/AA SEDAN</v>
       </c>
       <c r="N30" t="str">
-        <v/>
+        <v>356</v>
       </c>
       <c r="O30" t="str">
-        <v>5500054</v>
+        <v>3400163</v>
       </c>
       <c r="P30" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q30" t="str">
-        <v>tel:03622668110</v>
+        <v>Mete Can Erim</v>
+      </c>
+      <c r="R30" t="str">
+        <v>tel:02128662400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-urban-3380455</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000157835</v>
       </c>
       <c r="B31" t="str">
         <v>FIAT</v>
@@ -2003,16 +2093,16 @@
         <v>EGEA</v>
       </c>
       <c r="D31" t="str">
-        <v>1.3 MJET 95 HP EU5 URBAN</v>
+        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
       </c>
       <c r="E31" t="str">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="F31" t="str">
-        <v>119.775</v>
+        <v>40.706</v>
       </c>
       <c r="G31" t="str">
-        <v>34AEE070</v>
+        <v>34CTN019</v>
       </c>
       <c r="H31" t="str">
         <v>Dizel</v>
@@ -2021,7 +2111,7 @@
         <v>Manuel</v>
       </c>
       <c r="J31" t="str">
-        <v>1,3</v>
+        <v>1,2</v>
       </c>
       <c r="K31" t="str">
         <v>Beyaz</v>
@@ -2036,18 +2126,21 @@
         <v>356</v>
       </c>
       <c r="O31" t="str">
-        <v>3400031</v>
+        <v>2600091</v>
       </c>
       <c r="P31" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q31" t="str">
-        <v>tel:05495627993</v>
+        <v>SAMIYE Özfindik</v>
+      </c>
+      <c r="R31" t="str">
+        <v>tel:02223352430</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-3380559</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-11000157193</v>
       </c>
       <c r="B32" t="str">
         <v>FIAT</v>
@@ -2056,16 +2149,16 @@
         <v>EGEA</v>
       </c>
       <c r="D32" t="str">
-        <v>1.3 MJET 95 HP EU6 EASY</v>
+        <v>1.3 MJET 95 HP EU6D EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
       </c>
       <c r="E32" t="str">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F32" t="str">
-        <v>102.180</v>
+        <v>59.391</v>
       </c>
       <c r="G32" t="str">
-        <v>34BPD509</v>
+        <v>34CTN159</v>
       </c>
       <c r="H32" t="str">
         <v>Dizel</v>
@@ -2074,7 +2167,7 @@
         <v>Manuel</v>
       </c>
       <c r="J32" t="str">
-        <v>1,3</v>
+        <v>1,2</v>
       </c>
       <c r="K32" t="str">
         <v>Beyaz</v>
@@ -2083,24 +2176,27 @@
         <v>Önden</v>
       </c>
       <c r="M32" t="str">
-        <v/>
+        <v>(OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N32" t="str">
-        <v/>
+        <v>356</v>
       </c>
       <c r="O32" t="str">
-        <v>3400031</v>
+        <v>5500075</v>
       </c>
       <c r="P32" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q32" t="str">
-        <v>tel:05495627993</v>
+        <v>MEHMET DEMIREL</v>
+      </c>
+      <c r="R32" t="str">
+        <v>tel:03622666112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-21000158329</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000158051</v>
       </c>
       <c r="B33" t="str">
         <v>FIAT</v>
@@ -2109,16 +2205,16 @@
         <v>EGEA</v>
       </c>
       <c r="D33" t="str">
-        <v>1.3 MJET 95 HP EU6 EASY</v>
+        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
       </c>
       <c r="E33" t="str">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F33" t="str">
-        <v>118.091</v>
+        <v>42.978</v>
       </c>
       <c r="G33" t="str">
-        <v>34BZV604</v>
+        <v>34DNM910</v>
       </c>
       <c r="H33" t="str">
         <v>Dizel</v>
@@ -2127,7 +2223,7 @@
         <v>Manuel</v>
       </c>
       <c r="J33" t="str">
-        <v>1,3</v>
+        <v>1,2</v>
       </c>
       <c r="K33" t="str">
         <v>Beyaz</v>
@@ -2136,24 +2232,27 @@
         <v>Önden</v>
       </c>
       <c r="M33" t="str">
-        <v>(OTOMOBİL(AA SEDAN)</v>
+        <v/>
       </c>
       <c r="N33" t="str">
-        <v>356</v>
+        <v/>
       </c>
       <c r="O33" t="str">
-        <v>3400163</v>
+        <v>100025</v>
       </c>
       <c r="P33" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q33" t="str">
-        <v>tel:02128662400</v>
+        <v>AYSEN Özgür</v>
+      </c>
+      <c r="R33" t="str">
+        <v>tel:03224411717</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000158132</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-11000157072</v>
       </c>
       <c r="B34" t="str">
         <v>FIAT</v>
@@ -2162,16 +2261,16 @@
         <v>EGEA</v>
       </c>
       <c r="D34" t="str">
-        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
+        <v>1.3 MJET 95 HP EU6D EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
       </c>
       <c r="E34" t="str">
         <v>2020</v>
       </c>
       <c r="F34" t="str">
-        <v>95.882</v>
+        <v>74.649</v>
       </c>
       <c r="G34" t="str">
-        <v>34CTL210</v>
+        <v>34CTN103</v>
       </c>
       <c r="H34" t="str">
         <v>Dizel</v>
@@ -2189,24 +2288,27 @@
         <v>Önden</v>
       </c>
       <c r="M34" t="str">
-        <v/>
+        <v>OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N34" t="str">
-        <v/>
+        <v>356</v>
       </c>
       <c r="O34" t="str">
-        <v>600340</v>
+        <v>700082</v>
       </c>
       <c r="P34" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q34" t="str">
-        <v>tel:03125918600</v>
+        <v>Berkay Sikir</v>
+      </c>
+      <c r="R34" t="str">
+        <v>tel:02423402685</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-11000157455</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-11000157248</v>
       </c>
       <c r="B35" t="str">
         <v>FIAT</v>
@@ -2221,10 +2323,10 @@
         <v>2020</v>
       </c>
       <c r="F35" t="str">
-        <v>141.539</v>
+        <v>70.299</v>
       </c>
       <c r="G35" t="str">
-        <v>55ADR382</v>
+        <v>34CTN096</v>
       </c>
       <c r="H35" t="str">
         <v>Dizel</v>
@@ -2242,7 +2344,7 @@
         <v>Önden</v>
       </c>
       <c r="M35" t="str">
-        <v>OTOMOBİL (AA SEDAN)</v>
+        <v>(OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N35" t="str">
         <v>356</v>
@@ -2254,12 +2356,15 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q35" t="str">
+        <v>KORHAN Beyhan</v>
+      </c>
+      <c r="R35" t="str">
         <v>tel:03622666112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-3352161</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000157664</v>
       </c>
       <c r="B36" t="str">
         <v>FIAT</v>
@@ -2268,16 +2373,16 @@
         <v>EGEA</v>
       </c>
       <c r="D36" t="str">
-        <v>1.3 MJET 95 HP EU6 EASY</v>
+        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
       </c>
       <c r="E36" t="str">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F36" t="str">
-        <v>127.002</v>
+        <v>68.555</v>
       </c>
       <c r="G36" t="str">
-        <v>34BPV345</v>
+        <v>34CYF817</v>
       </c>
       <c r="H36" t="str">
         <v>Dizel</v>
@@ -2286,7 +2391,7 @@
         <v>Manuel</v>
       </c>
       <c r="J36" t="str">
-        <v>1,3</v>
+        <v>1,2</v>
       </c>
       <c r="K36" t="str">
         <v>Beyaz</v>
@@ -2295,24 +2400,27 @@
         <v>Önden</v>
       </c>
       <c r="M36" t="str">
-        <v>OTOMOBİL</v>
+        <v/>
       </c>
       <c r="N36" t="str">
-        <v>BİNEK</v>
+        <v/>
       </c>
       <c r="O36" t="str">
-        <v>3400031</v>
+        <v>100025</v>
       </c>
       <c r="P36" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q36" t="str">
-        <v>tel:(0346)-215-15-15</v>
+        <v>YALÇIN Güneyan</v>
+      </c>
+      <c r="R36" t="str">
+        <v>tel:03224411111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000158238</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-11000157250</v>
       </c>
       <c r="B37" t="str">
         <v>FIAT</v>
@@ -2321,16 +2429,16 @@
         <v>EGEA</v>
       </c>
       <c r="D37" t="str">
-        <v>1.3 MJET 95 HP EU5 EASY</v>
+        <v>1.3 MJET 95 HP EU6D EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
       </c>
       <c r="E37" t="str">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F37" t="str">
-        <v>184.684</v>
+        <v>87.945</v>
       </c>
       <c r="G37" t="str">
-        <v>07AEJ226</v>
+        <v>34CTM958</v>
       </c>
       <c r="H37" t="str">
         <v>Dizel</v>
@@ -2339,30 +2447,36 @@
         <v>Manuel</v>
       </c>
       <c r="J37" t="str">
-        <v>1,3</v>
+        <v>1,2</v>
       </c>
       <c r="K37" t="str">
         <v>Beyaz</v>
       </c>
+      <c r="L37" t="str">
+        <v>Önden</v>
+      </c>
       <c r="M37" t="str">
-        <v>OTOMOBİL(AA SEDAN)</v>
+        <v>(OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N37" t="str">
         <v>356</v>
       </c>
       <c r="O37" t="str">
-        <v>700048</v>
+        <v>5500075</v>
       </c>
       <c r="P37" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q37" t="str">
-        <v>tel:02423402200</v>
+        <v>KORHAN Beyhan</v>
+      </c>
+      <c r="R37" t="str">
+        <v>tel:03622666112</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-3234967</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000158112</v>
       </c>
       <c r="B38" t="str">
         <v>FIAT</v>
@@ -2371,16 +2485,16 @@
         <v>EGEA</v>
       </c>
       <c r="D38" t="str">
-        <v>1.3 MJET 95 HP EU6 EASY</v>
+        <v>1.3 MJET 95 HP EU5 EASY</v>
       </c>
       <c r="E38" t="str">
         <v>2019</v>
       </c>
       <c r="F38" t="str">
-        <v>68.474</v>
+        <v>88.830</v>
       </c>
       <c r="G38" t="str">
-        <v>34CFS968</v>
+        <v>34BRA892</v>
       </c>
       <c r="H38" t="str">
         <v>Dizel</v>
@@ -2404,18 +2518,21 @@
         <v>356</v>
       </c>
       <c r="O38" t="str">
-        <v>3400031</v>
+        <v>700048</v>
       </c>
       <c r="P38" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q38" t="str">
-        <v>tel:05495627993</v>
+        <v>HALIL IBRAHIM Zöngür</v>
+      </c>
+      <c r="R38" t="str">
+        <v>tel:02423402200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-21000157628</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-21000157435</v>
       </c>
       <c r="B39" t="str">
         <v>FIAT</v>
@@ -2430,10 +2547,10 @@
         <v>2019</v>
       </c>
       <c r="F39" t="str">
-        <v>103.485</v>
+        <v>94.016</v>
       </c>
       <c r="G39" t="str">
-        <v>34CNV627</v>
+        <v>34CMS467</v>
       </c>
       <c r="H39" t="str">
         <v>Dizel</v>
@@ -2463,12 +2580,15 @@
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q39" t="str">
+        <v>KAYA MERT Günal</v>
+      </c>
+      <c r="R39" t="str">
         <v>tel:03622668110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-21000158012</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-urban-3380455</v>
       </c>
       <c r="B40" t="str">
         <v>FIAT</v>
@@ -2477,16 +2597,16 @@
         <v>EGEA</v>
       </c>
       <c r="D40" t="str">
-        <v>1.3 MJET 95 HP EU6 EASY</v>
+        <v>1.3 MJET 95 HP EU5 URBAN</v>
       </c>
       <c r="E40" t="str">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F40" t="str">
-        <v>113.227</v>
+        <v>119.775</v>
       </c>
       <c r="G40" t="str">
-        <v>34CAK112</v>
+        <v>34AEE070</v>
       </c>
       <c r="H40" t="str">
         <v>Dizel</v>
@@ -2504,24 +2624,27 @@
         <v>Önden</v>
       </c>
       <c r="M40" t="str">
-        <v/>
+        <v>(OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N40" t="str">
-        <v/>
+        <v>356</v>
       </c>
       <c r="O40" t="str">
-        <v>3400134</v>
+        <v>3400031</v>
       </c>
       <c r="P40" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q40" t="str">
-        <v>tel:02122292700</v>
+        <v>ANIL ATEŞ</v>
+      </c>
+      <c r="R40" t="str">
+        <v>tel:05495627993</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000156963</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/16-mjet-120-hp-lounge-11000156635</v>
       </c>
       <c r="B41" t="str">
         <v>FIAT</v>
@@ -2530,16 +2653,16 @@
         <v>EGEA</v>
       </c>
       <c r="D41" t="str">
-        <v>1.3 MJET 95 HP EU5 EASY</v>
+        <v>1.6 MJET 120 HP LOUNGE</v>
       </c>
       <c r="E41" t="str">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F41" t="str">
-        <v>113.805</v>
+        <v>76.991</v>
       </c>
       <c r="G41" t="str">
-        <v>34SG9470</v>
+        <v>16Z4044</v>
       </c>
       <c r="H41" t="str">
         <v>Dizel</v>
@@ -2548,10 +2671,10 @@
         <v>Manuel</v>
       </c>
       <c r="J41" t="str">
-        <v>1,3</v>
+        <v>1,6</v>
       </c>
       <c r="K41" t="str">
-        <v>Gri</v>
+        <v>Beyaz</v>
       </c>
       <c r="L41" t="str">
         <v>Önden</v>
@@ -2563,18 +2686,21 @@
         <v>356</v>
       </c>
       <c r="O41" t="str">
-        <v>3400288</v>
+        <v>1600270</v>
       </c>
       <c r="P41" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q41" t="str">
-        <v>tel:02165879870</v>
+        <v>CAN ERINÇ Imer</v>
+      </c>
+      <c r="R41" t="str">
+        <v>tel:02242703900</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-21000156915</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-21000158329</v>
       </c>
       <c r="B42" t="str">
         <v>FIAT</v>
@@ -2589,10 +2715,10 @@
         <v>2018</v>
       </c>
       <c r="F42" t="str">
-        <v>113.424</v>
+        <v>118.091</v>
       </c>
       <c r="G42" t="str">
-        <v>34BEG111</v>
+        <v>34BZV604</v>
       </c>
       <c r="H42" t="str">
         <v>Dizel</v>
@@ -2610,24 +2736,27 @@
         <v>Önden</v>
       </c>
       <c r="M42" t="str">
-        <v>OTOMOBİL(AA SEDAN)</v>
+        <v>(OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N42" t="str">
         <v>356</v>
       </c>
       <c r="O42" t="str">
-        <v>3400288</v>
+        <v>3400163</v>
       </c>
       <c r="P42" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q42" t="str">
-        <v>tel:02165879870</v>
+        <v>ORKUN Ustaoglu</v>
+      </c>
+      <c r="R42" t="str">
+        <v>tel:02128662400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000157423</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-e6df-s3-sedan-21000158132</v>
       </c>
       <c r="B43" t="str">
         <v>FIAT</v>
@@ -2636,16 +2765,16 @@
         <v>EGEA</v>
       </c>
       <c r="D43" t="str">
-        <v>1.3 MJET 95 HP EU5 EASY</v>
+        <v>1.3 MJET 95 HP EASY E6DF S3 SEDAN</v>
       </c>
       <c r="E43" t="str">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F43" t="str">
-        <v>149.427</v>
+        <v>95.882</v>
       </c>
       <c r="G43" t="str">
-        <v>34BRA013</v>
+        <v>34CTL210</v>
       </c>
       <c r="H43" t="str">
         <v>Dizel</v>
@@ -2654,7 +2783,7 @@
         <v>Manuel</v>
       </c>
       <c r="J43" t="str">
-        <v>1,3</v>
+        <v>1,2</v>
       </c>
       <c r="K43" t="str">
         <v>Beyaz</v>
@@ -2663,24 +2792,27 @@
         <v>Önden</v>
       </c>
       <c r="M43" t="str">
-        <v>(OTOMOBİL(AA SEDAN)</v>
+        <v/>
       </c>
       <c r="N43" t="str">
-        <v>356</v>
+        <v/>
       </c>
       <c r="O43" t="str">
-        <v>100025</v>
+        <v>600340</v>
       </c>
       <c r="P43" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q43" t="str">
-        <v>tel:03224411717</v>
+        <v>MEHMET CAN Irki</v>
+      </c>
+      <c r="R43" t="str">
+        <v>tel:03125918600</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-plus-21000157845</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-3352161</v>
       </c>
       <c r="B44" t="str">
         <v>FIAT</v>
@@ -2689,16 +2821,16 @@
         <v>EGEA</v>
       </c>
       <c r="D44" t="str">
-        <v>1.3 MJET 95 HP EASY PLUS</v>
+        <v>1.3 MJET 95 HP EU6 EASY</v>
       </c>
       <c r="E44" t="str">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F44" t="str">
-        <v>117.672</v>
+        <v>127.002</v>
       </c>
       <c r="G44" t="str">
-        <v>34AEB952</v>
+        <v>34BPV345</v>
       </c>
       <c r="H44" t="str">
         <v>Dizel</v>
@@ -2716,24 +2848,27 @@
         <v>Önden</v>
       </c>
       <c r="M44" t="str">
-        <v/>
+        <v>OTOMOBİL</v>
       </c>
       <c r="N44" t="str">
-        <v/>
+        <v>BİNEK</v>
       </c>
       <c r="O44" t="str">
-        <v>5500054</v>
+        <v>3400031</v>
       </c>
       <c r="P44" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q44" t="str">
-        <v>tel:03622668110</v>
+        <v>OTOKOÇ 2. EL SİVAS</v>
+      </c>
+      <c r="R44" t="str">
+        <v>tel:(0346)-215-15-15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000156867</v>
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000158238</v>
       </c>
       <c r="B45" t="str">
         <v>FIAT</v>
@@ -2748,10 +2883,10 @@
         <v>2016</v>
       </c>
       <c r="F45" t="str">
-        <v>112.091</v>
+        <v>184.684</v>
       </c>
       <c r="G45" t="str">
-        <v>10BEL85</v>
+        <v>07AEJ226</v>
       </c>
       <c r="H45" t="str">
         <v>Dizel</v>
@@ -2766,24 +2901,531 @@
         <v>Beyaz</v>
       </c>
       <c r="M45" t="str">
-        <v>OTOMOBİL/AA SEDAN</v>
+        <v>OTOMOBİL(AA SEDAN)</v>
       </c>
       <c r="N45" t="str">
         <v>356</v>
       </c>
       <c r="O45" t="str">
-        <v>3400163</v>
+        <v>700048</v>
       </c>
       <c r="P45" t="str">
         <v>Satış Temsilcisi</v>
       </c>
       <c r="Q45" t="str">
-        <v>tel:02128662400</v>
+        <v>ADEM Akburak</v>
+      </c>
+      <c r="R45" t="str">
+        <v>tel:02423402200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-3234967</v>
+      </c>
+      <c r="B46" t="str">
+        <v>FIAT</v>
+      </c>
+      <c r="C46" t="str">
+        <v>EGEA</v>
+      </c>
+      <c r="D46" t="str">
+        <v>1.3 MJET 95 HP EU6 EASY</v>
+      </c>
+      <c r="E46" t="str">
+        <v>2019</v>
+      </c>
+      <c r="F46" t="str">
+        <v>68.474</v>
+      </c>
+      <c r="G46" t="str">
+        <v>34CFS968</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Dizel</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="J46" t="str">
+        <v>1,3</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Beyaz</v>
+      </c>
+      <c r="L46" t="str">
+        <v>Önden</v>
+      </c>
+      <c r="M46" t="str">
+        <v>(OTOMOBİL(AA SEDAN)</v>
+      </c>
+      <c r="N46" t="str">
+        <v>356</v>
+      </c>
+      <c r="O46" t="str">
+        <v>3400031</v>
+      </c>
+      <c r="P46" t="str">
+        <v>Satış Temsilcisi</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>ANIL ATEŞ</v>
+      </c>
+      <c r="R46" t="str">
+        <v>tel:05495627993</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-21000157628</v>
+      </c>
+      <c r="B47" t="str">
+        <v>FIAT</v>
+      </c>
+      <c r="C47" t="str">
+        <v>EGEA</v>
+      </c>
+      <c r="D47" t="str">
+        <v>1.3 MJET 95 HP EU6D EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
+      </c>
+      <c r="E47" t="str">
+        <v>2019</v>
+      </c>
+      <c r="F47" t="str">
+        <v>103.485</v>
+      </c>
+      <c r="G47" t="str">
+        <v>34CNV627</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Dizel</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="J47" t="str">
+        <v>1,2</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Beyaz</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Önden</v>
+      </c>
+      <c r="M47" t="str">
+        <v>(OTOMOBİL(AA SEDAN)</v>
+      </c>
+      <c r="N47" t="str">
+        <v>356</v>
+      </c>
+      <c r="O47" t="str">
+        <v>5500054</v>
+      </c>
+      <c r="P47" t="str">
+        <v>Satış Temsilcisi</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>KAYA MERT Günal</v>
+      </c>
+      <c r="R47" t="str">
+        <v>tel:03622668110</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6d-easy-dizel-eu62-c-and-d-temp-sedan-icten-yanmali-21000158382</v>
+      </c>
+      <c r="B48" t="str">
+        <v>FIAT</v>
+      </c>
+      <c r="C48" t="str">
+        <v>EGEA</v>
+      </c>
+      <c r="D48" t="str">
+        <v>1.3 MJET 95 HP EU6D EASY Dizel EU6.2 (C and D-Temp) Sedan İÇTEN YANMALI</v>
+      </c>
+      <c r="E48" t="str">
+        <v>2019</v>
+      </c>
+      <c r="F48" t="str">
+        <v>79.217</v>
+      </c>
+      <c r="G48" t="str">
+        <v>34CBL014</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Dizel</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="J48" t="str">
+        <v>1,2</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Beyaz</v>
+      </c>
+      <c r="L48" t="str">
+        <v>Önden</v>
+      </c>
+      <c r="M48" t="str">
+        <v>(OTOMOBİL(AA SEDAN)</v>
+      </c>
+      <c r="N48" t="str">
+        <v>356</v>
+      </c>
+      <c r="O48" t="str">
+        <v>3500143</v>
+      </c>
+      <c r="P48" t="str">
+        <v>Satış Temsilcisi</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>RASIT YIGIT</v>
+      </c>
+      <c r="R48" t="str">
+        <v>tel:02324989100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-21000158013</v>
+      </c>
+      <c r="B49" t="str">
+        <v>FIAT</v>
+      </c>
+      <c r="C49" t="str">
+        <v>EGEA</v>
+      </c>
+      <c r="D49" t="str">
+        <v>1.3 MJET 95 HP EU6 EASY</v>
+      </c>
+      <c r="E49" t="str">
+        <v>2018</v>
+      </c>
+      <c r="F49" t="str">
+        <v>117.701</v>
+      </c>
+      <c r="G49" t="str">
+        <v>34CAK084</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Dizel</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="J49" t="str">
+        <v>1,3</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Beyaz</v>
+      </c>
+      <c r="L49" t="str">
+        <v>Önden</v>
+      </c>
+      <c r="M49" t="str">
+        <v>(OTOMOBİL(AA SEDAN)</v>
+      </c>
+      <c r="N49" t="str">
+        <v>356</v>
+      </c>
+      <c r="O49" t="str">
+        <v>3400134</v>
+      </c>
+      <c r="P49" t="str">
+        <v>Satış Temsilcisi</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>ERHAN Agdogan</v>
+      </c>
+      <c r="R49" t="str">
+        <v>tel:02122292700</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000156963</v>
+      </c>
+      <c r="B50" t="str">
+        <v>FIAT</v>
+      </c>
+      <c r="C50" t="str">
+        <v>EGEA</v>
+      </c>
+      <c r="D50" t="str">
+        <v>1.3 MJET 95 HP EU5 EASY</v>
+      </c>
+      <c r="E50" t="str">
+        <v>2017</v>
+      </c>
+      <c r="F50" t="str">
+        <v>113.805</v>
+      </c>
+      <c r="G50" t="str">
+        <v>34SG9470</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Dizel</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="J50" t="str">
+        <v>1,3</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Gri</v>
+      </c>
+      <c r="L50" t="str">
+        <v>Önden</v>
+      </c>
+      <c r="M50" t="str">
+        <v>OTOMOBİL(AA SEDAN)</v>
+      </c>
+      <c r="N50" t="str">
+        <v>356</v>
+      </c>
+      <c r="O50" t="str">
+        <v>3400288</v>
+      </c>
+      <c r="P50" t="str">
+        <v>Satış Temsilcisi</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>OGUZHAN Kübüç</v>
+      </c>
+      <c r="R50" t="str">
+        <v>tel:02165879870</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu6-easy-21000156915</v>
+      </c>
+      <c r="B51" t="str">
+        <v>FIAT</v>
+      </c>
+      <c r="C51" t="str">
+        <v>EGEA</v>
+      </c>
+      <c r="D51" t="str">
+        <v>1.3 MJET 95 HP EU6 EASY</v>
+      </c>
+      <c r="E51" t="str">
+        <v>2018</v>
+      </c>
+      <c r="F51" t="str">
+        <v>113.424</v>
+      </c>
+      <c r="G51" t="str">
+        <v>34BEG111</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Dizel</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="J51" t="str">
+        <v>1,3</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Beyaz</v>
+      </c>
+      <c r="L51" t="str">
+        <v>Önden</v>
+      </c>
+      <c r="M51" t="str">
+        <v>OTOMOBİL(AA SEDAN)</v>
+      </c>
+      <c r="N51" t="str">
+        <v>356</v>
+      </c>
+      <c r="O51" t="str">
+        <v>3400288</v>
+      </c>
+      <c r="P51" t="str">
+        <v>Satış Temsilcisi</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>Cem Balikçi</v>
+      </c>
+      <c r="R51" t="str">
+        <v>tel:02165879870</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-urban-21000157881</v>
+      </c>
+      <c r="B52" t="str">
+        <v>FIAT</v>
+      </c>
+      <c r="C52" t="str">
+        <v>EGEA</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1.3 MJET 95 HP EU5 URBAN</v>
+      </c>
+      <c r="E52" t="str">
+        <v>2017</v>
+      </c>
+      <c r="F52" t="str">
+        <v>160.716</v>
+      </c>
+      <c r="G52" t="str">
+        <v>34BAZ895</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Dizel</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="J52" t="str">
+        <v>1,3</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Beyaz</v>
+      </c>
+      <c r="L52" t="str">
+        <v>Önden</v>
+      </c>
+      <c r="M52" t="str">
+        <v>OTOMOBİL( AA SEDAN )</v>
+      </c>
+      <c r="N52" t="str">
+        <v>356</v>
+      </c>
+      <c r="O52" t="str">
+        <v>5500054</v>
+      </c>
+      <c r="P52" t="str">
+        <v>Satış Temsilcisi</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>KAYA MERT Günal</v>
+      </c>
+      <c r="R52" t="str">
+        <v>tel:03622668110</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-eu5-easy-21000157423</v>
+      </c>
+      <c r="B53" t="str">
+        <v>FIAT</v>
+      </c>
+      <c r="C53" t="str">
+        <v>EGEA</v>
+      </c>
+      <c r="D53" t="str">
+        <v>1.3 MJET 95 HP EU5 EASY</v>
+      </c>
+      <c r="E53" t="str">
+        <v>2019</v>
+      </c>
+      <c r="F53" t="str">
+        <v>149.427</v>
+      </c>
+      <c r="G53" t="str">
+        <v>34BRA013</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Dizel</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="J53" t="str">
+        <v>1,3</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Beyaz</v>
+      </c>
+      <c r="L53" t="str">
+        <v>Önden</v>
+      </c>
+      <c r="M53" t="str">
+        <v>(OTOMOBİL(AA SEDAN)</v>
+      </c>
+      <c r="N53" t="str">
+        <v>356</v>
+      </c>
+      <c r="O53" t="str">
+        <v>100025</v>
+      </c>
+      <c r="P53" t="str">
+        <v>Satış Temsilcisi</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>AYSEN Özgür</v>
+      </c>
+      <c r="R53" t="str">
+        <v>tel:03224411717</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.otokocikinciel.com/ikinci-el-fiat/egea/dizel/13-mjet-95-hp-easy-plus-21000157845</v>
+      </c>
+      <c r="B54" t="str">
+        <v>FIAT</v>
+      </c>
+      <c r="C54" t="str">
+        <v>EGEA</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1.3 MJET 95 HP EASY PLUS</v>
+      </c>
+      <c r="E54" t="str">
+        <v>2017</v>
+      </c>
+      <c r="F54" t="str">
+        <v>117.672</v>
+      </c>
+      <c r="G54" t="str">
+        <v>34AEB952</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Dizel</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="J54" t="str">
+        <v>1,3</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Beyaz</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Önden</v>
+      </c>
+      <c r="M54" t="str">
+        <v/>
+      </c>
+      <c r="N54" t="str">
+        <v/>
+      </c>
+      <c r="O54" t="str">
+        <v>5500054</v>
+      </c>
+      <c r="P54" t="str">
+        <v>Satış Temsilcisi</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>KAYA MERT Günal</v>
+      </c>
+      <c r="R54" t="str">
+        <v>tel:03622668110</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R54"/>
   </ignoredErrors>
 </worksheet>
 </file>